--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -116263,31 +116263,31 @@
         <v>2.86</v>
       </c>
       <c r="AU554">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV554">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW554">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX554">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY554">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ554">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA554">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB554">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC554">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD554">
         <v>2.1</v>
@@ -116469,31 +116469,31 @@
         <v>3.11</v>
       </c>
       <c r="AU555">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV555">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW555">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX555">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY555">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ555">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA555">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB555">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC555">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD555">
         <v>1.95</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -116887,31 +116887,31 @@
         <v>2.92</v>
       </c>
       <c r="AU557">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV557">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW557">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX557">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY557">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ557">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA557">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BB557">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC557">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="BD557">
         <v>1.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -116887,31 +116887,31 @@
         <v>2.92</v>
       </c>
       <c r="AU557">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV557">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW557">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX557">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY557">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ557">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA557">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB557">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC557">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BD557">
         <v>1.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="611">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1845,6 +1845,9 @@
   <si>
     <t>['36', '64', '76']</t>
   </si>
+  <si>
+    <t>['31', '42']</t>
+  </si>
 </sst>
 </file>
 
@@ -2205,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP557"/>
+  <dimension ref="A1:BP558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4193,7 +4196,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ10">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4396,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.61</v>
@@ -7898,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.87</v>
@@ -8725,7 +8728,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.88</v>
@@ -9958,7 +9961,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -10167,7 +10170,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ39">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -16550,7 +16553,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.87</v>
@@ -19025,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -23142,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>1.67</v>
@@ -23557,7 +23560,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ104">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -27880,7 +27883,7 @@
         <v>2.4</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>1.43</v>
@@ -30146,7 +30149,7 @@
         <v>0.4</v>
       </c>
       <c r="AP136">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ136">
         <v>0.65</v>
@@ -31794,7 +31797,7 @@
         <v>1.2</v>
       </c>
       <c r="AP144">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.96</v>
@@ -34269,7 +34272,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ156">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR156">
         <v>1.1</v>
@@ -38801,7 +38804,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ178">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR178">
         <v>1.41</v>
@@ -40655,7 +40658,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ187">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR187">
         <v>1.24</v>
@@ -42506,7 +42509,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ196">
         <v>1.09</v>
@@ -43539,7 +43542,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ201">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR201">
         <v>1.27</v>
@@ -43948,7 +43951,7 @@
         <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ203">
         <v>1.39</v>
@@ -50749,7 +50752,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ236">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR236">
         <v>1.61</v>
@@ -51161,7 +51164,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ238">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR238">
         <v>1.55</v>
@@ -51570,7 +51573,7 @@
         <v>1.1</v>
       </c>
       <c r="AP240">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ240">
         <v>1.17</v>
@@ -54660,7 +54663,7 @@
         <v>1.27</v>
       </c>
       <c r="AP255">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
         <v>1.43</v>
@@ -56105,7 +56108,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ262">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -61664,7 +61667,7 @@
         <v>0.75</v>
       </c>
       <c r="AP289">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ289">
         <v>0.91</v>
@@ -63315,7 +63318,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ297">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR297">
         <v>1.62</v>
@@ -64757,7 +64760,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ304">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR304">
         <v>1.31</v>
@@ -68874,7 +68877,7 @@
         <v>0.67</v>
       </c>
       <c r="AP324">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ324">
         <v>0.83</v>
@@ -71967,7 +71970,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ339">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR339">
         <v>1.35</v>
@@ -74436,7 +74439,7 @@
         <v>2.15</v>
       </c>
       <c r="AP351">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ351">
         <v>1.88</v>
@@ -77323,7 +77326,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ365">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR365">
         <v>1.48</v>
@@ -79792,7 +79795,7 @@
         <v>1.13</v>
       </c>
       <c r="AP377">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ377">
         <v>1.35</v>
@@ -80616,7 +80619,7 @@
         <v>0.67</v>
       </c>
       <c r="AP381">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ381">
         <v>0.91</v>
@@ -82267,7 +82270,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ389">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR389">
         <v>1.49</v>
@@ -88444,7 +88447,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP419">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ419">
         <v>0.74</v>
@@ -88859,7 +88862,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ421">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR421">
         <v>1.56</v>
@@ -94830,10 +94833,10 @@
         <v>1.5</v>
       </c>
       <c r="AP450">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ450">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR450">
         <v>1.47</v>
@@ -96275,7 +96278,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ457">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR457">
         <v>1.53</v>
@@ -98335,7 +98338,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ467">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR467">
         <v>1.21</v>
@@ -101422,7 +101425,7 @@
         <v>0.74</v>
       </c>
       <c r="AP482">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ482">
         <v>0.78</v>
@@ -103485,7 +103488,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ492">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR492">
         <v>1.26</v>
@@ -109250,7 +109253,7 @@
         <v>2.05</v>
       </c>
       <c r="AP520">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ520">
         <v>2.04</v>
@@ -109868,7 +109871,7 @@
         <v>0.9</v>
       </c>
       <c r="AP523">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ523">
         <v>0.91</v>
@@ -111928,7 +111931,7 @@
         <v>0.86</v>
       </c>
       <c r="AP533">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ533">
         <v>0.83</v>
@@ -115433,7 +115436,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ550">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR550">
         <v>1.35</v>
@@ -116257,7 +116260,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ554">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AR554">
         <v>1.51</v>
@@ -116460,7 +116463,7 @@
         <v>1.83</v>
       </c>
       <c r="AP555">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AQ555">
         <v>1.77</v>
@@ -116666,7 +116669,7 @@
         <v>1.62</v>
       </c>
       <c r="AP556">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AQ556">
         <v>1.65</v>
@@ -116875,7 +116878,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ557">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AR557">
         <v>1.61</v>
@@ -116951,6 +116954,212 @@
       </c>
       <c r="BP557">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="558" spans="1:68">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>7430985</v>
+      </c>
+      <c r="C558" t="s">
+        <v>68</v>
+      </c>
+      <c r="D558" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="2">
+        <v>45430.51041666666</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558" t="s">
+        <v>79</v>
+      </c>
+      <c r="H558" t="s">
+        <v>82</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>2</v>
+      </c>
+      <c r="K558">
+        <v>2</v>
+      </c>
+      <c r="L558">
+        <v>0</v>
+      </c>
+      <c r="M558">
+        <v>2</v>
+      </c>
+      <c r="N558">
+        <v>2</v>
+      </c>
+      <c r="O558" t="s">
+        <v>95</v>
+      </c>
+      <c r="P558" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q558">
+        <v>2.5</v>
+      </c>
+      <c r="R558">
+        <v>2.2</v>
+      </c>
+      <c r="S558">
+        <v>4.5</v>
+      </c>
+      <c r="T558">
+        <v>1.36</v>
+      </c>
+      <c r="U558">
+        <v>3</v>
+      </c>
+      <c r="V558">
+        <v>2.75</v>
+      </c>
+      <c r="W558">
+        <v>1.4</v>
+      </c>
+      <c r="X558">
+        <v>7</v>
+      </c>
+      <c r="Y558">
+        <v>1.1</v>
+      </c>
+      <c r="Z558">
+        <v>1.9</v>
+      </c>
+      <c r="AA558">
+        <v>3.2</v>
+      </c>
+      <c r="AB558">
+        <v>3.4</v>
+      </c>
+      <c r="AC558">
+        <v>1.04</v>
+      </c>
+      <c r="AD558">
+        <v>12</v>
+      </c>
+      <c r="AE558">
+        <v>1.28</v>
+      </c>
+      <c r="AF558">
+        <v>3.6</v>
+      </c>
+      <c r="AG558">
+        <v>1.81</v>
+      </c>
+      <c r="AH558">
+        <v>1.89</v>
+      </c>
+      <c r="AI558">
+        <v>1.8</v>
+      </c>
+      <c r="AJ558">
+        <v>1.95</v>
+      </c>
+      <c r="AK558">
+        <v>1.22</v>
+      </c>
+      <c r="AL558">
+        <v>1.22</v>
+      </c>
+      <c r="AM558">
+        <v>2</v>
+      </c>
+      <c r="AN558">
+        <v>1.88</v>
+      </c>
+      <c r="AO558">
+        <v>1.69</v>
+      </c>
+      <c r="AP558">
+        <v>1.84</v>
+      </c>
+      <c r="AQ558">
+        <v>1.71</v>
+      </c>
+      <c r="AR558">
+        <v>1.58</v>
+      </c>
+      <c r="AS558">
+        <v>1.28</v>
+      </c>
+      <c r="AT558">
+        <v>2.86</v>
+      </c>
+      <c r="AU558">
+        <v>-1</v>
+      </c>
+      <c r="AV558">
+        <v>-1</v>
+      </c>
+      <c r="AW558">
+        <v>-1</v>
+      </c>
+      <c r="AX558">
+        <v>-1</v>
+      </c>
+      <c r="AY558">
+        <v>-1</v>
+      </c>
+      <c r="AZ558">
+        <v>-1</v>
+      </c>
+      <c r="BA558">
+        <v>-1</v>
+      </c>
+      <c r="BB558">
+        <v>-1</v>
+      </c>
+      <c r="BC558">
+        <v>-1</v>
+      </c>
+      <c r="BD558">
+        <v>1.45</v>
+      </c>
+      <c r="BE558">
+        <v>8</v>
+      </c>
+      <c r="BF558">
+        <v>3.31</v>
+      </c>
+      <c r="BG558">
+        <v>1.15</v>
+      </c>
+      <c r="BH558">
+        <v>4.5</v>
+      </c>
+      <c r="BI558">
+        <v>1.28</v>
+      </c>
+      <c r="BJ558">
+        <v>3.35</v>
+      </c>
+      <c r="BK558">
+        <v>1.5</v>
+      </c>
+      <c r="BL558">
+        <v>2.4</v>
+      </c>
+      <c r="BM558">
+        <v>1.91</v>
+      </c>
+      <c r="BN558">
+        <v>1.8</v>
+      </c>
+      <c r="BO558">
+        <v>2.45</v>
+      </c>
+      <c r="BP558">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -117096,31 +117096,31 @@
         <v>2.86</v>
       </c>
       <c r="AU558">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV558">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW558">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX558">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY558">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ558">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA558">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB558">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC558">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD558">
         <v>1.45</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20232024.xlsx
@@ -116263,13 +116263,13 @@
         <v>1.84</v>
       </c>
       <c r="AR554">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS554">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AT554">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU554">
         <v>3</v>
@@ -116469,13 +116469,13 @@
         <v>1.77</v>
       </c>
       <c r="AR555">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS555">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AT555">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="AU555">
         <v>5</v>
@@ -116675,13 +116675,13 @@
         <v>1.65</v>
       </c>
       <c r="AR556">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS556">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT556">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="AU556">
         <v>4</v>
@@ -116881,13 +116881,13 @@
         <v>1.71</v>
       </c>
       <c r="AR557">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AS557">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT557">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU557">
         <v>9</v>
@@ -117087,10 +117087,10 @@
         <v>1.71</v>
       </c>
       <c r="AR558">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AS558">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AT558">
         <v>2.86</v>
